--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML10.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML10.xlsx
@@ -326,20 +326,6 @@
 validate3;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=EMML1.0 Test Index Page
-};
-validate3
-{
-validate_AppMinimized=appsscreen
-};</t>
-  </si>
-  <si>
     <t>wait(3);
 validate1;
 link_Click(EMML10_test_link);
@@ -434,6 +420,20 @@
   </si>
   <si>
     <t>EMML1.0</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=EMML1.0 Test Index Page
+};
+validate3
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
   </si>
 </sst>
 </file>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1241,13 +1241,13 @@
         <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="166.5" thickBot="1">
+    <row r="10" spans="1:11" ht="179.25" thickBot="1">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>39</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>36</v>
@@ -1319,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1346,10 +1346,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>36</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML10.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML10.xlsx
@@ -349,29 +349,6 @@
 };
 validate3
 {
-validate_screenOrientation=rotation3
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(EMML10_test_link);
-wait(2);
-validate2;
-link_Click(DeviceApplicationScreen10_test_link);
-validate3;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=EMML1.0 Test Index Page
-};
-validate3
-{
 validate_Result=Time:
 };</t>
   </si>
@@ -434,6 +411,36 @@
 {
 validate_AppMinimized=com.symbol.enterprisebrowser
 };</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=EMML1.0 Test Index Page
+};
+validate3
+{
+validate_screenOrientation=rotation3
+};
+validate4
+{
+validate_screenOrientation=rotation0
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(EMML10_test_link);
+wait(2);
+validate2;
+link_Click(DeviceApplicationScreen10_test_link);
+validate3;
+press_Key(Back);
+link_Click(DeviceApplicationScreenPotrait10_test_link);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -983,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1039,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1174,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -1241,7 +1248,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1268,7 +1275,7 @@
         <v>39</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1301,7 +1308,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="166.5" thickBot="1">
+    <row r="12" spans="1:11" ht="217.5" thickBot="1">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1319,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1346,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1373,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>36</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML10.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML10.xlsx
@@ -63,14 +63,6 @@
     <t>Battery</t>
   </si>
   <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
-PushConfigxml;</t>
-  </si>
-  <si>
     <t>Signal</t>
   </si>
   <si>
@@ -441,6 +433,15 @@
 press_Key(Back);
 link_Click(DeviceApplicationScreenPotrait10_test_link);
 validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+ChangeConfigxml(Configuration/Applications/Application,isWindowsKey,&lt;isWindowsKey value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -990,9 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1038,7 +1037,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="204.75" thickBot="1">
+    <row r="2" spans="1:11" ht="243" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1056,7 +1055,7 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1083,10 +1082,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1104,16 +1103,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1131,16 +1130,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1158,16 +1157,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1185,16 +1184,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="17">
         <v>3</v>
       </c>
       <c r="G7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1212,16 +1211,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1239,16 +1238,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1266,16 +1265,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1293,16 +1292,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1320,16 +1319,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1347,16 +1346,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1374,16 +1373,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML10.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML10.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -442,6 +442,62 @@
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
 ChangeConfigxml(Configuration/Applications/Application,isWindowsKey,&lt;isWindowsKey value="0"/&gt;);
 PushConfigxml;</t>
+  </si>
+  <si>
+    <t>Linear Gesture</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(EMML10_test_link);
+wait(2);
+validate2;
+link_Click(gesture10_test_link);
+DrawGesture(linear_default);
+validate3;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=EMML1.0 Test Index Page
+};
+validate3
+{
+validate_Result=Gesture detected for 1th time
+validate_Result=swipe
+};</t>
+  </si>
+  <si>
+    <t>Hold Gesture</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(EMML10_test_link);
+wait(2);
+validate2;
+link_Click(gesture10_test_link);
+DrawGesture(hold,100,100,6000);
+validate3;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=EMML1.0 Test Index Page
+};
+validate3
+{
+validate_Result=Gesture detected for 3th time
+validate_Result=press
+};</t>
   </si>
 </sst>
 </file>
@@ -989,9 +1045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1387,6 +1445,60 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="192" thickBot="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="192" thickBot="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
